--- a/Template/Example/Входящие.xlsx
+++ b/Template/Example/Входящие.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImportData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src_dev\rx-util-importdata-net-core\Template\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -18,7 +18,7 @@
   <x:definedNames>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ВходящиеПисьма!$A$1:$Q$21</x:definedName>
   </x:definedNames>
-  <x:calcPr calcId="152511" refMode="R1C1"/>
+  <x:calcPr calcId="152511"/>
 </x:workbook>
 </file>
 
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <x:si>
     <x:t>Содержание</x:t>
   </x:si>
@@ -136,9 +136,6 @@
     <x:t>Регистрация</x:t>
   </x:si>
   <x:si>
-    <x:t>Digital River GmbH</x:t>
-  </x:si>
-  <x:si>
     <x:t>Входящее письмо</x:t>
   </x:si>
   <x:si>
@@ -148,12 +145,6 @@
     <x:t>Отдел продаж</x:t>
   </x:si>
   <x:si>
-    <x:t>C:\ImportData\line.txt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1234/523</x:t>
-  </x:si>
-  <x:si>
     <x:t>Оплачено</x:t>
   </x:si>
   <x:si>
@@ -175,20 +166,29 @@
     <x:t>Подробности</x:t>
   </x:si>
   <x:si>
-    <x:t>Загружен частично</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07.02.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Найдено несколько записей типа сущности "Подразделение" с именем "Отдел продаж". Проверьте, что выбрана верная запись.</x:t>
+    <x:t>D:\tmp\IncommingLetter1.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1234/525</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>ТехноСистемы ЗАО</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Загружен</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01.04.2023</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -234,14 +234,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0563C1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -274,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -353,27 +345,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA6A6A6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFA6A6A6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFA6A6A6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA6A6A6"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -461,9 +438,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -831,9 +805,9 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:dimension ref="A1:S21"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <x:sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <x:pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="O1" sqref="O1:Q1"/>
+      <x:selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -900,65 +874,65 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="O1" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P1" s="14" t="s">
-        <x:v>36</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q1" s="14" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="R1"/>
     </x:row>
-    <x:row r="2" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <x:row r="2" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <x:c r="A2" s="23" t="s">
-        <x:v>34</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B2" s="24">
         <x:v>40554</x:v>
       </x:c>
       <x:c r="C2" s="25" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D2" s="26" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D2" s="26" t="s">
+      <x:c r="E2" s="25" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="E2" s="25" t="s">
+      <x:c r="F2" s="25" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="F2" s="25" t="s">
+      <x:c r="G2" s="19" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H2" s="27">
+        <x:v>40410</x:v>
+      </x:c>
+      <x:c r="I2" s="27" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="J2" s="28"/>
+      <x:c r="K2" s="28" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="G2" s="27" t="s">
+      <x:c r="L2" s="25" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="H2" s="28">
-        <x:v>40410</x:v>
-      </x:c>
-      <x:c r="I2" s="28" t="s">
+      <x:c r="M2" s="25">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="N2" s="25" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="J2" s="29"/>
-      <x:c r="K2" s="29" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="L2" s="25" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="M2" s="25">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="N2" s="25" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="O2" s="29" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="P2" s="30" t="s">
+      <x:c r="O2" s="28" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="Q2" s="30" t="s">
+      <x:c r="P2" s="29" t="s">
         <x:v>40</x:v>
+      </x:c>
+      <x:c r="Q2" s="29" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="R2"/>
       <x:c r="S2"/>
